--- a/data_excel/444.xlsx
+++ b/data_excel/444.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>冰箱</t>
   </si>
@@ -107,6 +107,16 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,14 +197,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -497,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -625,59 +647,70 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data_excel/444.xlsx
+++ b/data_excel/444.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>冰箱</t>
   </si>
@@ -107,16 +107,6 @@
   </si>
   <si>
     <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,26 +187,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -519,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,70 +625,59 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/data_excel/444.xlsx
+++ b/data_excel/444.xlsx
@@ -102,10 +102,6 @@
     <t>。</t>
   </si>
   <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +113,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,11 +212,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -522,7 +523,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:C8"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,13 +649,13 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -662,10 +663,10 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
